--- a/data/extractions/251111 Fiche d'extraction d'échantillons.xlsx
+++ b/data/extractions/251111 Fiche d'extraction d'échantillons.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\02 - Extractions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itgitm-my.sharepoint.com/personal/nvanreet_itg_be/Documents/Documenten/GitHub/biobank-dashboard/data/extractions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A889A298-7656-4646-AA72-B224F7B0E0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{A889A298-7656-4646-AA72-B224F7B0E0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64702D6C-D6A8-4D4C-B278-B3F04A571A38}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1CE68EB6-DB45-45E9-95B2-F2EDACD56A3B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1CE68EB6-DB45-45E9-95B2-F2EDACD56A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Extractions" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Extractions!$A$1:$L$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Extractions!$A$1:$L$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Extractions!$A$1:$L$17</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Extractions!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="22">
   <si>
     <t>Numéro</t>
   </si>
@@ -241,12 +241,21 @@
   <si>
     <t>H</t>
   </si>
+  <si>
+    <t>LOUIS</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,12 +276,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -319,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -339,13 +342,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -360,10 +359,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -401,7 +404,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -507,7 +510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -649,7 +652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -657,30 +660,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8F8353-8CB1-400B-B8E5-1BA03F155009}">
-  <dimension ref="A1:L480"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="71.45" customHeight="1">
+    <row r="1" spans="1:12" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -718,7 +721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>305</v>
       </c>
@@ -756,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>320</v>
       </c>
@@ -794,7 +797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>360</v>
       </c>
@@ -832,7 +835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>365</v>
       </c>
@@ -870,7 +873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>372</v>
       </c>
@@ -908,7 +911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>376</v>
       </c>
@@ -946,7 +949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>390</v>
       </c>
@@ -984,7 +987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>417</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>459</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>463</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>464</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>465</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>466</v>
       </c>
@@ -1212,7 +1215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>467</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>468</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>469</v>
       </c>
@@ -1326,682 +1329,498 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="8:12">
-      <c r="H52" s="6"/>
-      <c r="L52" s="6"/>
-    </row>
-    <row r="53" spans="8:12">
-      <c r="H53" s="6"/>
-      <c r="L53" s="6"/>
-    </row>
-    <row r="54" spans="8:12">
-      <c r="H54" s="6"/>
-      <c r="L54" s="6"/>
-    </row>
-    <row r="55" spans="8:12">
-      <c r="H55" s="6"/>
-      <c r="L55" s="6"/>
-    </row>
-    <row r="56" spans="8:12">
-      <c r="H56" s="6"/>
-      <c r="L56" s="6"/>
-    </row>
-    <row r="57" spans="8:12">
-      <c r="H57" s="6"/>
-      <c r="L57" s="6"/>
-    </row>
-    <row r="58" spans="8:12">
-      <c r="H58" s="6"/>
-      <c r="L58" s="6"/>
-    </row>
-    <row r="59" spans="8:12">
-      <c r="H59" s="6"/>
-      <c r="L59" s="6"/>
-    </row>
-    <row r="60" spans="8:12">
-      <c r="H60" s="6"/>
-      <c r="L60" s="6"/>
-    </row>
-    <row r="61" spans="8:12">
-      <c r="H61" s="6"/>
-      <c r="L61" s="6"/>
-    </row>
-    <row r="258" spans="2:2" ht="15.6">
-      <c r="B258" s="7"/>
-    </row>
-    <row r="259" spans="2:2" ht="15.6">
-      <c r="B259" s="7"/>
-    </row>
-    <row r="260" spans="2:2" ht="15.6">
-      <c r="B260" s="7"/>
-    </row>
-    <row r="261" spans="2:2" ht="15.6">
-      <c r="B261" s="7"/>
-    </row>
-    <row r="262" spans="2:2" ht="15.6">
-      <c r="B262" s="7"/>
-    </row>
-    <row r="263" spans="2:2" ht="15.6">
-      <c r="B263" s="7"/>
-    </row>
-    <row r="264" spans="2:2" ht="15.6">
-      <c r="B264" s="7"/>
-    </row>
-    <row r="265" spans="2:2" ht="15.6">
-      <c r="B265" s="7"/>
-    </row>
-    <row r="266" spans="2:2" ht="15.6">
-      <c r="B266" s="7"/>
-    </row>
-    <row r="267" spans="2:2" ht="15.6">
-      <c r="B267" s="7"/>
-    </row>
-    <row r="465" spans="1:12">
-      <c r="A465" s="1">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>296</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2501293</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="E18" s="1">
+        <v>26</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>45950</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>297</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2501911</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>26</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2">
+        <v>45950</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>298</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2501962</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>45950</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>299</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2501343</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>26</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2">
+        <v>45950</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>300</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2400826</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>26</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2">
+        <v>45950</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>301</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2402299</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="E23" s="1">
+        <v>26</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8</v>
+      </c>
+      <c r="G23" s="2">
+        <v>45950</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>302</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2400769</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>26</v>
+      </c>
+      <c r="F24" s="1">
+        <v>9</v>
+      </c>
+      <c r="G24" s="2">
+        <v>45950</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>303</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2500058</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>26</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2">
+        <v>45950</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>304</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2500047</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="E26" s="1">
+        <v>26</v>
+      </c>
+      <c r="F26" s="1">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2">
+        <v>45950</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>305</v>
       </c>
-      <c r="B465" s="1">
-        <v>2500047</v>
-      </c>
-      <c r="C465" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D465" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="E465" s="1">
-        <v>39</v>
-      </c>
-      <c r="F465" s="1">
-        <v>1</v>
-      </c>
-      <c r="G465" s="2">
-        <v>45972</v>
-      </c>
-      <c r="H465" s="1" t="s">
+      <c r="B27" s="1">
+        <v>2500045</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="E27" s="1">
+        <v>26</v>
+      </c>
+      <c r="F27" s="1">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2">
+        <v>45950</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>306</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2500101</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>26</v>
+      </c>
+      <c r="F28" s="1">
         <v>13</v>
       </c>
-      <c r="I465" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J465" s="1" t="s">
+      <c r="G28" s="2">
+        <v>45950</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>307</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2500069</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E29" s="1">
+        <v>26</v>
+      </c>
+      <c r="F29" s="1">
+        <v>14</v>
+      </c>
+      <c r="G29" s="2">
+        <v>45950</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>308</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2500038</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>26</v>
+      </c>
+      <c r="F30" s="1">
         <v>15</v>
       </c>
-      <c r="K465" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L465" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:12">
-      <c r="A466" s="1">
-        <v>320</v>
-      </c>
-      <c r="B466" s="1">
-        <v>2501335</v>
-      </c>
-      <c r="C466" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D466" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E466" s="1">
-        <v>39</v>
-      </c>
-      <c r="F466" s="1">
-        <v>2</v>
-      </c>
-      <c r="G466" s="2">
-        <v>45972</v>
-      </c>
-      <c r="H466" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I466" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J466" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K466" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L466" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="467" spans="1:12">
-      <c r="A467" s="1">
-        <v>360</v>
-      </c>
-      <c r="B467" s="1">
-        <v>2500721</v>
-      </c>
-      <c r="C467" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D467" s="6">
-        <v>1</v>
-      </c>
-      <c r="E467" s="1">
-        <v>39</v>
-      </c>
-      <c r="F467" s="1">
-        <v>3</v>
-      </c>
-      <c r="G467" s="2">
-        <v>45972</v>
-      </c>
-      <c r="H467" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I467" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J467" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K467" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L467" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="468" spans="1:12">
-      <c r="A468" s="1">
-        <v>365</v>
-      </c>
-      <c r="B468" s="1">
-        <v>2501103</v>
-      </c>
-      <c r="C468" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D468" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="E468" s="1">
-        <v>39</v>
-      </c>
-      <c r="F468" s="1">
-        <v>4</v>
-      </c>
-      <c r="G468" s="2">
-        <v>45972</v>
-      </c>
-      <c r="H468" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I468" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J468" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K468" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L468" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="469" spans="1:12">
-      <c r="A469" s="1">
-        <v>372</v>
-      </c>
-      <c r="B469" s="1">
-        <v>2501070</v>
-      </c>
-      <c r="C469" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D469" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="E469" s="1">
-        <v>39</v>
-      </c>
-      <c r="F469" s="1">
-        <v>5</v>
-      </c>
-      <c r="G469" s="2">
-        <v>45972</v>
-      </c>
-      <c r="H469" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I469" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J469" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K469" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L469" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="470" spans="1:12">
-      <c r="A470" s="1">
-        <v>376</v>
-      </c>
-      <c r="B470" s="1">
-        <v>2501121</v>
-      </c>
-      <c r="C470" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D470" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="E470" s="1">
-        <v>39</v>
-      </c>
-      <c r="F470" s="1">
-        <v>6</v>
-      </c>
-      <c r="G470" s="2">
-        <v>45972</v>
-      </c>
-      <c r="H470" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I470" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J470" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K470" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L470" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="471" spans="1:12">
-      <c r="A471" s="1">
-        <v>390</v>
-      </c>
-      <c r="B471" s="1">
-        <v>2500620</v>
-      </c>
-      <c r="C471" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D471" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="E471" s="1">
-        <v>39</v>
-      </c>
-      <c r="F471" s="1">
+      <c r="G30" s="2">
+        <v>45950</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="1">
         <v>7</v>
-      </c>
-      <c r="G471" s="2">
-        <v>45972</v>
-      </c>
-      <c r="H471" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I471" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J471" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K471" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L471" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="472" spans="1:12">
-      <c r="A472" s="1">
-        <v>417</v>
-      </c>
-      <c r="B472" s="1">
-        <v>2500074</v>
-      </c>
-      <c r="C472" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D472" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="E472" s="1">
-        <v>39</v>
-      </c>
-      <c r="F472" s="1">
-        <v>8</v>
-      </c>
-      <c r="G472" s="2">
-        <v>45972</v>
-      </c>
-      <c r="H472" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I472" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J472" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K472" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L472" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="473" spans="1:12">
-      <c r="A473" s="1">
-        <v>459</v>
-      </c>
-      <c r="B473" s="1">
-        <v>2500798</v>
-      </c>
-      <c r="C473" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D473" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="E473" s="1">
-        <v>39</v>
-      </c>
-      <c r="F473" s="1">
-        <v>9</v>
-      </c>
-      <c r="G473" s="2">
-        <v>45972</v>
-      </c>
-      <c r="H473" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I473" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J473" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K473" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L473" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="474" spans="1:12">
-      <c r="A474" s="1">
-        <v>463</v>
-      </c>
-      <c r="B474" s="1">
-        <v>2500771</v>
-      </c>
-      <c r="C474" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D474" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="E474" s="1">
-        <v>39</v>
-      </c>
-      <c r="F474" s="1">
-        <v>10</v>
-      </c>
-      <c r="G474" s="2">
-        <v>45972</v>
-      </c>
-      <c r="H474" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I474" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J474" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K474" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L474" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="475" spans="1:12">
-      <c r="A475" s="1">
-        <v>464</v>
-      </c>
-      <c r="B475" s="1">
-        <v>2500052</v>
-      </c>
-      <c r="C475" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D475" s="6">
-        <v>2</v>
-      </c>
-      <c r="E475" s="1">
-        <v>39</v>
-      </c>
-      <c r="F475" s="1">
-        <v>11</v>
-      </c>
-      <c r="G475" s="2">
-        <v>45972</v>
-      </c>
-      <c r="H475" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I475" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J475" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K475" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L475" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="476" spans="1:12">
-      <c r="A476" s="1">
-        <v>465</v>
-      </c>
-      <c r="B476" s="1">
-        <v>2500068</v>
-      </c>
-      <c r="C476" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D476" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="E476" s="1">
-        <v>39</v>
-      </c>
-      <c r="F476" s="1">
-        <v>12</v>
-      </c>
-      <c r="G476" s="2">
-        <v>45972</v>
-      </c>
-      <c r="H476" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I476" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J476" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K476" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L476" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="477" spans="1:12">
-      <c r="A477" s="1">
-        <v>466</v>
-      </c>
-      <c r="B477" s="1">
-        <v>2402774</v>
-      </c>
-      <c r="C477" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D477" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="E477" s="1">
-        <v>39</v>
-      </c>
-      <c r="F477" s="1">
-        <v>13</v>
-      </c>
-      <c r="G477" s="2">
-        <v>45972</v>
-      </c>
-      <c r="H477" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I477" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J477" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K477" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L477" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="478" spans="1:12">
-      <c r="A478" s="1">
-        <v>467</v>
-      </c>
-      <c r="B478" s="1">
-        <v>2500046</v>
-      </c>
-      <c r="C478" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D478" s="6">
-        <v>2</v>
-      </c>
-      <c r="E478" s="1">
-        <v>39</v>
-      </c>
-      <c r="F478" s="1">
-        <v>14</v>
-      </c>
-      <c r="G478" s="2">
-        <v>45972</v>
-      </c>
-      <c r="H478" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I478" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J478" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K478" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L478" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" spans="1:12">
-      <c r="A479" s="1">
-        <v>468</v>
-      </c>
-      <c r="B479" s="1">
-        <v>2500059</v>
-      </c>
-      <c r="C479" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D479" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="E479" s="1">
-        <v>39</v>
-      </c>
-      <c r="F479" s="1">
-        <v>15</v>
-      </c>
-      <c r="G479" s="2">
-        <v>45972</v>
-      </c>
-      <c r="H479" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I479" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J479" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K479" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L479" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="480" spans="1:12">
-      <c r="A480" s="1">
-        <v>469</v>
-      </c>
-      <c r="B480" s="1">
-        <v>2500756</v>
-      </c>
-      <c r="C480" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D480" s="6">
-        <v>2</v>
-      </c>
-      <c r="E480" s="1">
-        <v>39</v>
-      </c>
-      <c r="F480" s="1">
-        <v>16</v>
-      </c>
-      <c r="G480" s="2">
-        <v>45972</v>
-      </c>
-      <c r="H480" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I480" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J480" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K480" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L480" s="1">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2012,12 +1831,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-11-13T09:28:31+00:00</Uploaded>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2199,24 +2020,46 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-11-13T09:28:31+00:00</Uploaded>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{027630B6-E884-41C5-B061-EEE9A301CCA2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07DE7675-B475-4C86-9D27-F8C004628C39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74528F6B-89FB-444C-8223-058BBF94B34F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74528F6B-89FB-444C-8223-058BBF94B34F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07DE7675-B475-4C86-9D27-F8C004628C39}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{027630B6-E884-41C5-B061-EEE9A301CCA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>